--- a/项目文档/项目开发计划表_学生（项目小组）.xlsx
+++ b/项目文档/项目开发计划表_学生（项目小组）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="26">
   <si>
     <t>项目开发计划表</t>
   </si>
@@ -35,7 +35,7 @@
     <t>项目名称</t>
   </si>
   <si>
-    <t>基于SpringBoot和vue3的图书管理系统</t>
+    <t>图书管理系统</t>
   </si>
   <si>
     <t>项目负责部门</t>
@@ -77,33 +77,36 @@
     <t>周日</t>
   </si>
   <si>
+    <t xml:space="preserve">工作任务：
+1.上课（软件开发流程、mvc与架构、Mysql回顾）
+</t>
+  </si>
+  <si>
     <t>工作任务：
-1.搭建软件环境</t>
+1.上课（Java框架回顾，SpringBoot+SSM）</t>
   </si>
   <si>
     <t>工作任务：
-1.学习Spring框架
-2.学习SSM和Mybatis
-3.搭建简单的SpringBoot项目</t>
+1.上课（前端框架回顾，Vue3 + ElementPlus）</t>
   </si>
   <si>
     <t>工作任务：
-1.学习vue相关知识
-2.搭建一个简单的vue前端项目
-3.学习ElementPlus</t>
+1.上课（微服务技术、微服务组件讲解）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">工作任务：
+1.项目立项
+2.分组拉群，确定组长
+3.CodeArts使用
+</t>
   </si>
   <si>
     <t>工作任务：
-1.学习微服务、集群、分布式
-2.搭建简单的微服务架构项目
-3.学习不同微服务之间的调用</t>
+1.需求分析</t>
   </si>
   <si>
     <t>工作任务：
-1.项目立项
-2.小组分工
-3.编写系统功能需求
-4.设计数据库表</t>
+1.接口与表设计</t>
   </si>
   <si>
     <t>工作任务：
@@ -1007,13 +1010,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1304,12 +1300,12 @@
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="7" width="20.6272727272727" customWidth="1"/>
+    <col min="1" max="7" width="20.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" ht="30" customHeight="1" spans="1:7">
@@ -1427,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="1:7">
@@ -1478,25 +1474,25 @@
     </row>
     <row r="10" ht="120" customHeight="1" spans="1:7">
       <c r="A10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" ht="20.1" customHeight="1" spans="1:7">
@@ -1547,25 +1543,25 @@
     </row>
     <row r="13" ht="120" customHeight="1" spans="1:7">
       <c r="A13" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
